--- a/municipal-building-energy-and-water-use.xlsx
+++ b/municipal-building-energy-and-water-use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{516EF20C-2DED-439E-B369-7743F33E814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8910A8B8-E28B-4D2D-A784-B00CB4531C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Municipal Building Energy and W" sheetId="7" r:id="rId1"/>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="K253" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
